--- a/Docs/utils.xlsx
+++ b/Docs/utils.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\RF2Software\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\RF2Software\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="0" windowWidth="26535" windowHeight="13020"/>
+    <workbookView xWindow="15990" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NFCv2 LED driver" sheetId="1" r:id="rId1"/>
+    <sheet name="NFCv2 USART1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>W</t>
   </si>
@@ -96,6 +97,24 @@
   </si>
   <si>
     <t>equiv resistor</t>
+  </si>
+  <si>
+    <t>fck</t>
+  </si>
+  <si>
+    <t>baud</t>
+  </si>
+  <si>
+    <t>USARTDIV</t>
+  </si>
+  <si>
+    <t>oversampling by 16</t>
+  </si>
+  <si>
+    <t>oversampling by 8</t>
+  </si>
+  <si>
+    <t>round(USARTDIV)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -737,4 +756,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>24000000</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>115200</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>115200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <f>B3*2/B5</f>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="C6">
+        <f>C3/C5</f>
+        <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <f>ROUND(C6,0)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f>C3/C7</f>
+        <v>115384.61538461539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/utils.xlsx
+++ b/Docs/utils.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="17190" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NFCv2 LED driver" sheetId="1" r:id="rId1"/>
     <sheet name="NFCv2 USART1" sheetId="2" r:id="rId2"/>
+    <sheet name="LM43603" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>W</t>
   </si>
@@ -115,6 +116,33 @@
   </si>
   <si>
     <t>round(USARTDIV)</t>
+  </si>
+  <si>
+    <t>VREF</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>VOUT</t>
   </si>
 </sst>
 </file>
@@ -762,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,4 +862,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>1/(1/B6+1/B7)</f>
+        <v>27.791304347826088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f>1/(1/B8+1/B9)</f>
+        <v>8.7179487179487172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f>B12/(B11+B12)</f>
+        <v>0.23878737541528236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f>$B$4/B13</f>
+        <v>4.233892173913044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/utils.xlsx
+++ b/Docs/utils.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="18390" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NFCv2 LED driver" sheetId="1" r:id="rId1"/>
     <sheet name="NFCv2 USART1" sheetId="2" r:id="rId2"/>
     <sheet name="LM43603" sheetId="3" r:id="rId3"/>
+    <sheet name="GenericExcercise" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>W</t>
   </si>
@@ -143,6 +144,21 @@
   </si>
   <si>
     <t>VOUT</t>
+  </si>
+  <si>
+    <t>SetCount</t>
+  </si>
+  <si>
+    <t>RepsCount</t>
+  </si>
+  <si>
+    <t>ParamCount per set</t>
+  </si>
+  <si>
+    <t>ParamCount per exercise</t>
+  </si>
+  <si>
+    <t>Byte count per exercise</t>
   </si>
 </sst>
 </file>
@@ -868,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -953,4 +969,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <f>4+6*B3</f>
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:E5" si="0">4+6*C3</f>
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <f>B5*B2</f>
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:E6" si="1">C5*C2</f>
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <f>B6*4</f>
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <f>C6*4</f>
+        <v>512</v>
+      </c>
+      <c r="D8">
+        <f>D6*4</f>
+        <v>2560</v>
+      </c>
+      <c r="E8">
+        <f>E6*4</f>
+        <v>4960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/utils.xlsx
+++ b/Docs/utils.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="19590" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NFCv2 LED driver" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1009,13 +1009,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,20 +1023,20 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <f>4+6*B3</f>
-        <v>64</v>
+        <f>4+4*B3</f>
+        <v>44</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:E5" si="0">4+6*C3</f>
-        <v>64</v>
+        <f>4+4*C3</f>
+        <v>84</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>4+4*D3</f>
+        <v>44</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>124</v>
+        <f>4+4*E3</f>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="B6">
         <f>B5*B2</f>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:E6" si="1">C5*C2</f>
-        <v>128</v>
+        <f t="shared" ref="C6:E6" si="0">C5*C2</f>
+        <v>84</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>640</v>
+        <f t="shared" si="0"/>
+        <v>440</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1240</v>
+        <f t="shared" si="0"/>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="B8">
         <f>B6*4</f>
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="C8">
         <f>C6*4</f>
-        <v>512</v>
+        <v>336</v>
       </c>
       <c r="D8">
         <f>D6*4</f>
-        <v>2560</v>
+        <v>1760</v>
       </c>
       <c r="E8">
         <f>E6*4</f>
-        <v>4960</v>
+        <v>4160</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/utils.xlsx
+++ b/Docs/utils.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\RF2Software\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RF2Software\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="21075" yWindow="0" windowWidth="26535" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NFCv2 LED driver" sheetId="1" r:id="rId1"/>
     <sheet name="NFCv2 USART1" sheetId="2" r:id="rId2"/>
     <sheet name="LM43603" sheetId="3" r:id="rId3"/>
     <sheet name="GenericExcercise" sheetId="4" r:id="rId4"/>
+    <sheet name="Servo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>W</t>
   </si>
@@ -159,6 +160,15 @@
   </si>
   <si>
     <t>Byte count per exercise</t>
+  </si>
+  <si>
+    <t>rpm @50Hz</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>rps @50Hz</t>
   </si>
 </sst>
 </file>
@@ -975,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1085,4 +1095,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B2/60</f>
+        <v>23.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>